--- a/Dialogos con el Cliente/PresentacionPrevia.xlsx
+++ b/Dialogos con el Cliente/PresentacionPrevia.xlsx
@@ -2,19 +2,20 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project-GitHub\GoldenAge\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcos\Documents\GitHub\GoldenAge\Dialogos con el Cliente\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1200" windowWidth="14380" windowHeight="4190"/>
+    <workbookView xWindow="0" yWindow="1200" windowWidth="14385" windowHeight="4185" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Reportes" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="92">
   <si>
     <t>ABUELO</t>
   </si>
@@ -132,12 +133,180 @@
   </si>
   <si>
     <t>La suma de los Pedidos con todos sus campos</t>
+  </si>
+  <si>
+    <t>Paciente</t>
+  </si>
+  <si>
+    <t>Pacient</t>
+  </si>
+  <si>
+    <t>rpListPatient</t>
+  </si>
+  <si>
+    <t>Retorna</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Afiliado</t>
+  </si>
+  <si>
+    <t>Obrasocial</t>
+  </si>
+  <si>
+    <t>Fingreso</t>
+  </si>
+  <si>
+    <t>fegreso</t>
+  </si>
+  <si>
+    <t>motivo</t>
+  </si>
+  <si>
+    <t>Buscar</t>
+  </si>
+  <si>
+    <t>Filtro</t>
+  </si>
+  <si>
+    <t>Todos</t>
+  </si>
+  <si>
+    <t>rpOnlyPatient</t>
+  </si>
+  <si>
+    <t>Dni</t>
+  </si>
+  <si>
+    <t>FechaNac</t>
+  </si>
+  <si>
+    <t>sexo</t>
+  </si>
+  <si>
+    <t>Localidad</t>
+  </si>
+  <si>
+    <t>Domicilio</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>NroAfiliado</t>
+  </si>
+  <si>
+    <t>ObraSocial</t>
+  </si>
+  <si>
+    <t>Fegreso</t>
+  </si>
+  <si>
+    <t>Motivo</t>
+  </si>
+  <si>
+    <t>individual</t>
+  </si>
+  <si>
+    <t>rpParentPatient</t>
+  </si>
+  <si>
+    <t>Parentezco</t>
+  </si>
+  <si>
+    <t>lista</t>
+  </si>
+  <si>
+    <t>Diagnostico</t>
+  </si>
+  <si>
+    <t>Nombre:</t>
+  </si>
+  <si>
+    <t>rpClinicHistory</t>
+  </si>
+  <si>
+    <t>Lista</t>
+  </si>
+  <si>
+    <t>Mensajes</t>
+  </si>
+  <si>
+    <t>Profesional</t>
+  </si>
+  <si>
+    <t>Diagnotico</t>
+  </si>
+  <si>
+    <t>Destinatario</t>
+  </si>
+  <si>
+    <t>buscar</t>
+  </si>
+  <si>
+    <t>Solicitante</t>
+  </si>
+  <si>
+    <t>Mensaje</t>
+  </si>
+  <si>
+    <t>Nombre/Ape</t>
+  </si>
+  <si>
+    <t>fecha/Hora</t>
+  </si>
+  <si>
+    <t>Fecha/Hora</t>
+  </si>
+  <si>
+    <t>Todo</t>
+  </si>
+  <si>
+    <t>Professional</t>
+  </si>
+  <si>
+    <t>rpListProfessional</t>
+  </si>
+  <si>
+    <t>Nro. M.P</t>
+  </si>
+  <si>
+    <t>Teléfono</t>
+  </si>
+  <si>
+    <t>E-mail</t>
+  </si>
+  <si>
+    <t>rpOnlyProfessional</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Mail</t>
+  </si>
+  <si>
+    <t>Profesional/Speciality</t>
+  </si>
+  <si>
+    <t>Individual</t>
+  </si>
+  <si>
+    <t>IdProfessional</t>
+  </si>
+  <si>
+    <t>idPatient</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -147,15 +316,33 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -163,12 +350,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -451,13 +678,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F3:L34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F3" t="s">
         <v>0</v>
       </c>
@@ -471,7 +698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F4" t="s">
         <v>1</v>
       </c>
@@ -485,7 +712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F5" t="s">
         <v>2</v>
       </c>
@@ -496,7 +723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>6</v>
       </c>
@@ -507,7 +734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F7" t="s">
         <v>3</v>
       </c>
@@ -518,7 +745,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F8" t="s">
         <v>4</v>
       </c>
@@ -526,7 +753,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F9" t="s">
         <v>5</v>
       </c>
@@ -534,7 +761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F10" t="s">
         <v>7</v>
       </c>
@@ -542,27 +769,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="6:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="6:12" x14ac:dyDescent="0.25">
       <c r="F15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F18" t="s">
         <v>18</v>
       </c>
@@ -573,7 +800,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
         <v>1</v>
       </c>
@@ -584,7 +811,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F20" t="s">
         <v>2</v>
       </c>
@@ -592,32 +819,32 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F21" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F25" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F29" t="s">
         <v>26</v>
       </c>
@@ -628,7 +855,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>16</v>
       </c>
@@ -639,7 +866,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F31" t="s">
         <v>28</v>
       </c>
@@ -650,7 +877,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="6:10" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
         <v>21</v>
       </c>
@@ -661,7 +888,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
         <v>12</v>
       </c>
@@ -669,7 +896,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="34" spans="6:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F34" t="s">
         <v>29</v>
       </c>
@@ -680,4 +907,400 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" t="s">
+        <v>54</v>
+      </c>
+      <c r="I12" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12" t="s">
+        <v>57</v>
+      </c>
+      <c r="L12" t="s">
+        <v>43</v>
+      </c>
+      <c r="M12" t="s">
+        <v>58</v>
+      </c>
+      <c r="N12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H20" t="s">
+        <v>55</v>
+      </c>
+      <c r="I20" t="s">
+        <v>55</v>
+      </c>
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>39</v>
+      </c>
+      <c r="B27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" t="s">
+        <v>74</v>
+      </c>
+      <c r="F30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>47</v>
+      </c>
+      <c r="C44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D45" t="s">
+        <v>86</v>
+      </c>
+      <c r="E45" t="s">
+        <v>53</v>
+      </c>
+      <c r="F45" t="s">
+        <v>55</v>
+      </c>
+      <c r="G45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H45" t="s">
+        <v>88</v>
+      </c>
+      <c r="I45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="C29:D29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>